--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>27/07/2022 09:28</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">

--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>27/07/2022 09:28</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">

--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -466,9 +466,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -489,6 +494,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -534,9 +544,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -557,6 +572,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -602,9 +622,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -625,6 +650,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -670,9 +700,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -693,6 +728,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -738,9 +778,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -761,6 +806,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -806,9 +856,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -829,6 +884,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -874,9 +934,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -897,6 +962,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -942,9 +1012,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -965,6 +1040,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1010,9 +1090,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Indskovene</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1033,6 +1118,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1078,9 +1168,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1101,6 +1196,11 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1146,9 +1246,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1169,6 +1274,11 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1214,9 +1324,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1237,6 +1352,11 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1282,9 +1402,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1305,6 +1430,11 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1350,9 +1480,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1373,6 +1508,11 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1418,9 +1558,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1441,6 +1586,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1486,9 +1636,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1509,6 +1664,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1554,9 +1714,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1577,6 +1742,11 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1622,9 +1792,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1645,6 +1820,11 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1690,9 +1870,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1713,6 +1898,11 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1758,9 +1948,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1781,6 +1976,11 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1826,9 +2026,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1849,6 +2054,11 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1894,9 +2104,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1917,6 +2132,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1962,9 +2182,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1985,6 +2210,11 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2030,9 +2260,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2053,6 +2288,11 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2098,9 +2338,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2121,6 +2366,11 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2166,9 +2416,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2189,6 +2444,11 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2234,9 +2494,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2257,6 +2522,11 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2302,9 +2572,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2325,6 +2600,11 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2370,9 +2650,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2393,6 +2678,11 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2438,9 +2728,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2461,6 +2756,11 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2506,9 +2806,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2529,6 +2834,11 @@
       <c r="L32" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2574,9 +2884,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2597,6 +2912,11 @@
       <c r="L33" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2642,9 +2962,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2665,6 +2990,11 @@
       <c r="L34" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2710,9 +3040,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rold Skov</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2733,6 +3068,11 @@
       <c r="L35" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2778,9 +3118,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Skindbjerglund</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2801,6 +3146,11 @@
       <c r="L36" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2846,9 +3196,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2869,6 +3224,11 @@
       <c r="L37" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2914,9 +3274,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2937,6 +3302,11 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2982,9 +3352,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3005,6 +3380,11 @@
       <c r="L39" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3050,9 +3430,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3073,6 +3458,11 @@
       <c r="L40" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3118,9 +3508,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3141,6 +3536,11 @@
       <c r="L41" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3186,9 +3586,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3209,6 +3614,11 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3254,9 +3664,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3277,6 +3692,11 @@
       <c r="L43" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3322,9 +3742,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3345,6 +3770,11 @@
       <c r="L44" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3390,9 +3820,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3413,6 +3848,11 @@
       <c r="L45" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3458,9 +3898,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3481,6 +3926,11 @@
       <c r="L46" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3526,9 +3976,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3549,6 +4004,11 @@
       <c r="L47" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3594,9 +4054,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3617,6 +4082,11 @@
       <c r="L48" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3662,9 +4132,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3685,6 +4160,11 @@
       <c r="L49" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3730,9 +4210,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3753,6 +4238,11 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3798,9 +4288,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3821,6 +4316,11 @@
       <c r="L51" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3866,9 +4366,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3889,6 +4394,11 @@
       <c r="L52" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3934,9 +4444,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3957,6 +4472,11 @@
       <c r="L53" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4002,9 +4522,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4025,6 +4550,11 @@
       <c r="L54" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4070,9 +4600,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4093,6 +4628,11 @@
       <c r="L55" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4138,9 +4678,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4161,6 +4706,11 @@
       <c r="L56" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4206,9 +4756,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4229,6 +4784,11 @@
       <c r="L57" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4274,9 +4834,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4297,6 +4862,11 @@
       <c r="L58" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4342,9 +4912,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4365,6 +4940,11 @@
       <c r="L59" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4410,9 +4990,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4433,6 +5018,11 @@
       <c r="L60" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4478,9 +5068,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4501,6 +5096,11 @@
       <c r="L61" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4546,9 +5146,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4569,6 +5174,11 @@
       <c r="L62" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4614,9 +5224,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4637,6 +5252,11 @@
       <c r="L63" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4682,9 +5302,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4705,6 +5330,11 @@
       <c r="L64" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4750,9 +5380,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4773,6 +5408,11 @@
       <c r="L65" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4818,9 +5458,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4841,6 +5486,11 @@
       <c r="L66" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4886,9 +5536,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4909,6 +5564,11 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4954,9 +5614,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4977,6 +5642,11 @@
       <c r="L68" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5022,9 +5692,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5045,6 +5720,11 @@
       <c r="L69" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5090,9 +5770,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5113,6 +5798,11 @@
       <c r="L70" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5158,9 +5848,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pamhule Skov</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5181,6 +5876,11 @@
       <c r="L71" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5226,9 +5926,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5249,6 +5954,11 @@
       <c r="L72" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5294,9 +6004,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5317,6 +6032,11 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5362,9 +6082,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5385,6 +6110,11 @@
       <c r="L74" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5430,9 +6160,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5453,6 +6188,11 @@
       <c r="L75" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5498,9 +6238,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5521,6 +6266,11 @@
       <c r="L76" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5566,9 +6316,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5589,6 +6344,11 @@
       <c r="L77" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5634,9 +6394,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5657,6 +6422,11 @@
       <c r="L78" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5702,9 +6472,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Lindet Skov</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5725,6 +6500,11 @@
       <c r="L79" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5770,9 +6550,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5793,6 +6578,11 @@
       <c r="L80" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5838,9 +6628,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5861,6 +6656,11 @@
       <c r="L81" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5906,9 +6706,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5929,6 +6734,11 @@
       <c r="L82" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5974,9 +6784,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5997,6 +6812,11 @@
       <c r="L83" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6042,9 +6862,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6065,6 +6890,11 @@
       <c r="L84" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6110,9 +6940,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6133,6 +6968,11 @@
       <c r="L85" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6178,9 +7018,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6201,6 +7046,11 @@
       <c r="L86" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6246,9 +7096,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6269,6 +7124,11 @@
       <c r="L87" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6314,9 +7174,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6337,6 +7202,11 @@
       <c r="L88" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6382,9 +7252,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6405,6 +7280,11 @@
       <c r="L89" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6450,9 +7330,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6473,6 +7358,11 @@
       <c r="L90" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6518,9 +7408,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6541,6 +7436,11 @@
       <c r="L91" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6586,9 +7486,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6609,6 +7514,11 @@
       <c r="L92" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6654,9 +7564,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6677,6 +7592,11 @@
       <c r="L93" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6722,9 +7642,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6745,6 +7670,11 @@
       <c r="L94" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6790,9 +7720,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6813,6 +7748,11 @@
       <c r="L95" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -6858,9 +7798,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6881,6 +7826,11 @@
       <c r="L96" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -6926,9 +7876,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6949,6 +7904,11 @@
       <c r="L97" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -6994,9 +7954,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7017,6 +7982,11 @@
       <c r="L98" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7062,9 +8032,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7085,6 +8060,11 @@
       <c r="L99" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7130,9 +8110,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7153,6 +8138,11 @@
       <c r="L100" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7198,9 +8188,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7221,6 +8216,11 @@
       <c r="L101" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7266,9 +8266,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7289,6 +8294,11 @@
       <c r="L102" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7334,9 +8344,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7357,6 +8372,11 @@
       <c r="L103" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7402,9 +8422,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7425,6 +8450,11 @@
       <c r="L104" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7470,9 +8500,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7493,6 +8528,11 @@
       <c r="L105" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7538,9 +8578,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7561,6 +8606,11 @@
       <c r="L106" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7606,9 +8656,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Silkeborg, vest og nord</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7629,6 +8684,11 @@
       <c r="L107" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7674,9 +8734,14 @@
           <t>9990</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Svinkløv Klitplantage</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7697,6 +8762,11 @@
       <c r="L108" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">

--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -503,12 +503,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1595,12 +1595,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2375,12 +2375,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3077,12 +3077,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4013,12 +4013,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4247,12 +4247,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4325,12 +4325,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4637,12 +4637,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4715,12 +4715,12 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4949,12 +4949,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5339,12 +5339,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5417,12 +5417,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5495,12 +5495,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5729,12 +5729,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6353,12 +6353,12 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6431,12 +6431,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6587,12 +6587,12 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6665,12 +6665,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6977,12 +6977,12 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7055,12 +7055,12 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7133,12 +7133,12 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -7211,12 +7211,12 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -7367,12 +7367,12 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -7445,12 +7445,12 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7523,12 +7523,12 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7601,12 +7601,12 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7757,12 +7757,12 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -7835,12 +7835,12 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -7913,12 +7913,12 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -7991,12 +7991,12 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -8069,12 +8069,12 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8147,12 +8147,12 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -8225,12 +8225,12 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -8303,12 +8303,12 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -8381,12 +8381,12 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -8459,12 +8459,12 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8615,12 +8615,12 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -8693,12 +8693,12 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -8771,12 +8771,12 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Forrest (non-habitattype)</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">

--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_6/P08_6_minimal_metadata.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>19114</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19116</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3914,7 +3914,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>19131</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>19135</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
